--- a/Squads/E0/Man City_Man United_squad.xlsx
+++ b/Squads/E0/Man City_Man United_squad.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="240">
   <si>
     <t>Rk</t>
   </si>
@@ -90,43 +90,43 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>768</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2178</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>2170</t>
-  </si>
-  <si>
-    <t>922</t>
+    <t>769</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2188</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>2180</t>
+  </si>
+  <si>
+    <t>924</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>712</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>847</t>
-  </si>
-  <si>
-    <t>1770</t>
-  </si>
-  <si>
-    <t>665</t>
-  </si>
-  <si>
-    <t>1235</t>
+    <t>713</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>1778</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>1238</t>
   </si>
   <si>
     <t>90</t>
@@ -135,106 +135,103 @@
     <t>103</t>
   </si>
   <si>
-    <t>1399</t>
-  </si>
-  <si>
-    <t>1407</t>
-  </si>
-  <si>
-    <t>1470</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>2464</t>
+    <t>1406</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>1477</t>
+  </si>
+  <si>
+    <t>2474</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>967</t>
-  </si>
-  <si>
-    <t>2258</t>
-  </si>
-  <si>
-    <t>2462</t>
-  </si>
-  <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>1055</t>
-  </si>
-  <si>
-    <t>1323</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>1319</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>1528</t>
-  </si>
-  <si>
-    <t>1624</t>
-  </si>
-  <si>
-    <t>2408</t>
+    <t>969</t>
+  </si>
+  <si>
+    <t>2268</t>
+  </si>
+  <si>
+    <t>2472</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>1329</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>2418</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>972</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>1535</t>
+  </si>
+  <si>
+    <t>1631</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>892</t>
-  </si>
-  <si>
-    <t>1278</t>
-  </si>
-  <si>
-    <t>1723</t>
-  </si>
-  <si>
-    <t>1787</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>1160</t>
-  </si>
-  <si>
-    <t>1460</t>
-  </si>
-  <si>
-    <t>1523</t>
+    <t>290</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>893</t>
+  </si>
+  <si>
+    <t>1283</t>
+  </si>
+  <si>
+    <t>1731</t>
+  </si>
+  <si>
+    <t>1795</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>1163</t>
+  </si>
+  <si>
+    <t>1467</t>
+  </si>
+  <si>
+    <t>1530</t>
   </si>
   <si>
     <t>Bruno Fernandes</t>
@@ -291,9 +288,6 @@
     <t>Lisandro Martínez</t>
   </si>
   <si>
-    <t>Sergio Reguilón</t>
-  </si>
-  <si>
     <t>Aaron Wan-Bissaka</t>
   </si>
   <si>
@@ -321,6 +315,9 @@
     <t>Marcus Rashford</t>
   </si>
   <si>
+    <t>Raphaël Varane</t>
+  </si>
+  <si>
     <t>Kevin De Bruyne</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>Mason Mount</t>
   </si>
   <si>
-    <t>Raphaël Varane</t>
-  </si>
-  <si>
     <t>Nathan Aké</t>
   </si>
   <si>
@@ -423,15 +417,15 @@
     <t>se SWE</t>
   </si>
   <si>
+    <t>fr FRA</t>
+  </si>
+  <si>
     <t>no NOR</t>
   </si>
   <si>
     <t>tn TUN</t>
   </si>
   <si>
-    <t>fr FRA</t>
-  </si>
-  <si>
     <t>nl NED</t>
   </si>
   <si>
@@ -477,151 +471,148 @@
     <t>eng Premier League</t>
   </si>
   <si>
-    <t>29-172</t>
-  </si>
-  <si>
-    <t>27-250</t>
-  </si>
-  <si>
-    <t>29-201</t>
-  </si>
-  <si>
-    <t>24-346</t>
+    <t>29-179</t>
+  </si>
+  <si>
+    <t>27-257</t>
+  </si>
+  <si>
+    <t>29-208</t>
+  </si>
+  <si>
+    <t>24-353</t>
+  </si>
+  <si>
+    <t>28-237</t>
+  </si>
+  <si>
+    <t>28-177</t>
   </si>
   <si>
     <t>28-230</t>
   </si>
   <si>
-    <t>28-170</t>
-  </si>
-  <si>
-    <t>28-223</t>
-  </si>
-  <si>
-    <t>30-194</t>
-  </si>
-  <si>
-    <t>32-004</t>
-  </si>
-  <si>
-    <t>19-241</t>
-  </si>
-  <si>
-    <t>27-331</t>
-  </si>
-  <si>
-    <t>21-276</t>
-  </si>
-  <si>
-    <t>29-297</t>
-  </si>
-  <si>
-    <t>27-190</t>
-  </si>
-  <si>
-    <t>24-003</t>
-  </si>
-  <si>
-    <t>30-359</t>
-  </si>
-  <si>
-    <t>18-314</t>
-  </si>
-  <si>
-    <t>26-040</t>
-  </si>
-  <si>
-    <t>27-073</t>
-  </si>
-  <si>
-    <t>26-093</t>
-  </si>
-  <si>
-    <t>24-027</t>
-  </si>
-  <si>
-    <t>22-035</t>
-  </si>
-  <si>
-    <t>29-275</t>
-  </si>
-  <si>
-    <t>33-275</t>
-  </si>
-  <si>
-    <t>36-055</t>
-  </si>
-  <si>
-    <t>21-023</t>
-  </si>
-  <si>
-    <t>29-225</t>
-  </si>
-  <si>
-    <t>26-119</t>
-  </si>
-  <si>
-    <t>32-244</t>
-  </si>
-  <si>
-    <t>23-275</t>
-  </si>
-  <si>
-    <t>23-221</t>
-  </si>
-  <si>
-    <t>19-098</t>
-  </si>
-  <si>
-    <t>32-013</t>
-  </si>
-  <si>
-    <t>21-037</t>
-  </si>
-  <si>
-    <t>25-048</t>
-  </si>
-  <si>
-    <t>30-308</t>
-  </si>
-  <si>
-    <t>29-009</t>
-  </si>
-  <si>
-    <t>20-230</t>
-  </si>
-  <si>
-    <t>26-289</t>
-  </si>
-  <si>
-    <t>23-176</t>
-  </si>
-  <si>
-    <t>29-276</t>
-  </si>
-  <si>
-    <t>25-184</t>
-  </si>
-  <si>
-    <t>31-113</t>
-  </si>
-  <si>
-    <t>21-231</t>
-  </si>
-  <si>
-    <t>19-222</t>
-  </si>
-  <si>
-    <t>19-154</t>
-  </si>
-  <si>
-    <t>19-186</t>
-  </si>
-  <si>
-    <t>28-084</t>
-  </si>
-  <si>
-    <t>27-081</t>
+    <t>30-201</t>
+  </si>
+  <si>
+    <t>32-011</t>
+  </si>
+  <si>
+    <t>19-248</t>
+  </si>
+  <si>
+    <t>27-338</t>
+  </si>
+  <si>
+    <t>21-283</t>
+  </si>
+  <si>
+    <t>29-304</t>
+  </si>
+  <si>
+    <t>27-197</t>
+  </si>
+  <si>
+    <t>24-010</t>
+  </si>
+  <si>
+    <t>31-000</t>
+  </si>
+  <si>
+    <t>18-321</t>
+  </si>
+  <si>
+    <t>26-047</t>
+  </si>
+  <si>
+    <t>26-100</t>
+  </si>
+  <si>
+    <t>24-034</t>
+  </si>
+  <si>
+    <t>22-042</t>
+  </si>
+  <si>
+    <t>29-282</t>
+  </si>
+  <si>
+    <t>33-282</t>
+  </si>
+  <si>
+    <t>36-062</t>
+  </si>
+  <si>
+    <t>21-030</t>
+  </si>
+  <si>
+    <t>29-232</t>
+  </si>
+  <si>
+    <t>26-126</t>
+  </si>
+  <si>
+    <t>30-315</t>
+  </si>
+  <si>
+    <t>32-251</t>
+  </si>
+  <si>
+    <t>23-282</t>
+  </si>
+  <si>
+    <t>23-228</t>
+  </si>
+  <si>
+    <t>19-105</t>
+  </si>
+  <si>
+    <t>32-020</t>
+  </si>
+  <si>
+    <t>21-044</t>
+  </si>
+  <si>
+    <t>25-055</t>
+  </si>
+  <si>
+    <t>29-016</t>
+  </si>
+  <si>
+    <t>20-237</t>
+  </si>
+  <si>
+    <t>26-296</t>
+  </si>
+  <si>
+    <t>23-183</t>
+  </si>
+  <si>
+    <t>29-283</t>
+  </si>
+  <si>
+    <t>25-191</t>
+  </si>
+  <si>
+    <t>31-120</t>
+  </si>
+  <si>
+    <t>21-238</t>
+  </si>
+  <si>
+    <t>19-229</t>
+  </si>
+  <si>
+    <t>19-161</t>
+  </si>
+  <si>
+    <t>19-193</t>
+  </si>
+  <si>
+    <t>28-091</t>
+  </si>
+  <si>
+    <t>27-088</t>
   </si>
   <si>
     <t>1994</t>
@@ -875,31 +866,31 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>818.0</v>
+        <v>819.0</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" t="s">
         <v>151</v>
       </c>
-      <c r="G2" t="s">
-        <v>153</v>
-      </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J2" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K2" t="n">
         <v>8.0</v>
@@ -911,7 +902,7 @@
         <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="O2" t="n">
         <v>18.0</v>
@@ -920,13 +911,13 @@
         <v>10.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>164.0</v>
+        <v>167.0</v>
       </c>
       <c r="R2" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="S2" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="T2" t="n">
         <v>0.0</v>
@@ -938,7 +929,7 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>145.0</v>
+        <v>148.0</v>
       </c>
       <c r="X2" t="n">
         <v>19.0</v>
@@ -955,31 +946,31 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>2134.0</v>
+        <v>2143.0</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" t="s">
         <v>153</v>
       </c>
-      <c r="H3" t="s">
-        <v>155</v>
-      </c>
       <c r="I3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J3" t="n">
-        <v>22.1</v>
+        <v>23.1</v>
       </c>
       <c r="K3" t="n">
         <v>7.0</v>
@@ -991,10 +982,10 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="O3" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="P3" t="n">
         <v>6.0</v>
@@ -1006,7 +997,7 @@
         <v>20.0</v>
       </c>
       <c r="S3" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="T3" t="n">
         <v>1.0</v>
@@ -1018,16 +1009,16 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>158.0</v>
+        <v>166.0</v>
       </c>
       <c r="X3" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>70.7</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="4">
@@ -1035,31 +1026,31 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>2301.0</v>
+        <v>2311.0</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J4" t="n">
-        <v>19.1</v>
+        <v>20.1</v>
       </c>
       <c r="K4" t="n">
         <v>6.0</v>
@@ -1071,7 +1062,7 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="O4" t="n">
         <v>15.0</v>
@@ -1080,10 +1071,10 @@
         <v>0.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>63.0</v>
+        <v>71.0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="S4" t="n">
         <v>18.0</v>
@@ -1098,7 +1089,7 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>63.0</v>
+        <v>69.0</v>
       </c>
       <c r="X4" t="n">
         <v>1.0</v>
@@ -1115,31 +1106,31 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>598.0</v>
+        <v>599.0</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" t="s">
         <v>151</v>
       </c>
-      <c r="G5" t="s">
-        <v>153</v>
-      </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J5" t="n">
-        <v>23.3</v>
+        <v>24.3</v>
       </c>
       <c r="K5" t="n">
         <v>6.0</v>
@@ -1151,10 +1142,10 @@
         <v>1.0</v>
       </c>
       <c r="N5" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="O5" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="P5" t="n">
         <v>0.0</v>
@@ -1166,7 +1157,7 @@
         <v>27.0</v>
       </c>
       <c r="S5" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
@@ -1178,16 +1169,16 @@
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>139.0</v>
+        <v>142.0</v>
       </c>
       <c r="X5" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="Y5" t="n">
         <v>15.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>61.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="6">
@@ -1195,28 +1186,28 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>2293.0</v>
+        <v>2303.0</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" t="s">
         <v>151</v>
       </c>
-      <c r="G6" t="s">
-        <v>153</v>
-      </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J6" t="n">
         <v>10.7</v>
@@ -1275,28 +1266,28 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>980.0</v>
+        <v>982.0</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J7" t="n">
         <v>7.9</v>
@@ -1358,25 +1349,25 @@
         <v>43.0</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J8" t="n">
         <v>17.6</v>
@@ -1435,31 +1426,31 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>755.0</v>
+        <v>756.0</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J9" t="n">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="K9" t="n">
         <v>4.0</v>
@@ -1498,10 +1489,10 @@
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="X9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y9" t="n">
         <v>0.0</v>
@@ -1515,31 +1506,31 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>459.0</v>
+        <v>460.0</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" t="s">
         <v>151</v>
       </c>
-      <c r="G10" t="s">
-        <v>153</v>
-      </c>
       <c r="H10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J10" t="n">
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="K10" t="n">
         <v>4.0</v>
@@ -1554,7 +1545,7 @@
         <v>19.0</v>
       </c>
       <c r="O10" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="P10" t="n">
         <v>3.0</v>
@@ -1563,10 +1554,10 @@
         <v>7.0</v>
       </c>
       <c r="R10" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="S10" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="T10" t="n">
         <v>0.0</v>
@@ -1578,16 +1569,16 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>64.0</v>
+        <v>68.0</v>
       </c>
       <c r="X10" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>54.5</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="11">
@@ -1595,31 +1586,31 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>904.0</v>
+        <v>905.0</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" t="s">
         <v>151</v>
       </c>
-      <c r="G11" t="s">
-        <v>153</v>
-      </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J11" t="n">
-        <v>17.8</v>
+        <v>18.7</v>
       </c>
       <c r="K11" t="n">
         <v>4.0</v>
@@ -1631,7 +1622,7 @@
         <v>0.0</v>
       </c>
       <c r="N11" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="O11" t="n">
         <v>41.0</v>
@@ -1643,10 +1634,10 @@
         <v>43.0</v>
       </c>
       <c r="R11" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
@@ -1658,7 +1649,7 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>75.0</v>
+        <v>80.0</v>
       </c>
       <c r="X11" t="n">
         <v>6.0</v>
@@ -1675,31 +1666,31 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>1873.0</v>
+        <v>1881.0</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" t="s">
         <v>151</v>
       </c>
-      <c r="G12" t="s">
-        <v>153</v>
-      </c>
       <c r="H12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J12" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="K12" t="n">
         <v>4.0</v>
@@ -1738,16 +1729,16 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="X12" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y12" t="n">
         <v>2.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>81.8</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="13">
@@ -1755,31 +1746,31 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>705.0</v>
+        <v>706.0</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J13" t="n">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="K13" t="n">
         <v>3.0</v>
@@ -1794,13 +1785,13 @@
         <v>10.0</v>
       </c>
       <c r="O13" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="P13" t="n">
         <v>5.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="R13" t="n">
         <v>8.0</v>
@@ -1818,7 +1809,7 @@
         <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="X13" t="n">
         <v>2.0</v>
@@ -1835,28 +1826,28 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>1310.0</v>
+        <v>1313.0</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J14" t="n">
         <v>10.5</v>
@@ -1918,28 +1909,28 @@
         <v>97.0</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
         <v>151</v>
       </c>
-      <c r="G15" t="s">
-        <v>153</v>
-      </c>
       <c r="H15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J15" t="n">
-        <v>6.9</v>
+        <v>7.0</v>
       </c>
       <c r="K15" t="n">
         <v>3.0</v>
@@ -1951,7 +1942,7 @@
         <v>0.0</v>
       </c>
       <c r="N15" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="O15" t="n">
         <v>5.0</v>
@@ -1984,10 +1975,10 @@
         <v>4.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>80.0</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="16">
@@ -1998,28 +1989,28 @@
         <v>110.0</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
         <v>151</v>
       </c>
-      <c r="G16" t="s">
-        <v>153</v>
-      </c>
       <c r="H16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J16" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="K16" t="n">
         <v>3.0</v>
@@ -2037,7 +2028,7 @@
         <v>23.0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q16" t="n">
         <v>14.0</v>
@@ -2058,7 +2049,7 @@
         <v>0.0</v>
       </c>
       <c r="W16" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="X16" t="n">
         <v>0.0</v>
@@ -2075,28 +2066,28 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>1481.0</v>
+        <v>1488.0</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
         <v>151</v>
       </c>
-      <c r="G17" t="s">
-        <v>153</v>
-      </c>
       <c r="H17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J17" t="n">
         <v>12.9</v>
@@ -2120,7 +2111,7 @@
         <v>6.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="R17" t="n">
         <v>19.0</v>
@@ -2138,7 +2129,7 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="X17" t="n">
         <v>48.0</v>
@@ -2155,31 +2146,31 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>1489.0</v>
+        <v>1496.0</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
         <v>151</v>
       </c>
-      <c r="G18" t="s">
-        <v>153</v>
-      </c>
       <c r="H18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I18" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J18" t="n">
-        <v>10.5</v>
+        <v>11.4</v>
       </c>
       <c r="K18" t="n">
         <v>3.0</v>
@@ -2194,7 +2185,7 @@
         <v>11.0</v>
       </c>
       <c r="O18" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="P18" t="n">
         <v>0.0</v>
@@ -2203,10 +2194,10 @@
         <v>2.0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="S18" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="T18" t="n">
         <v>0.0</v>
@@ -2218,16 +2209,16 @@
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="X18" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="19">
@@ -2235,28 +2226,28 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>1557.0</v>
+        <v>1564.0</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
         <v>151</v>
       </c>
-      <c r="G19" t="s">
-        <v>153</v>
-      </c>
       <c r="H19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J19" t="n">
         <v>6.2</v>
@@ -2315,31 +2306,31 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>2093.0</v>
+        <v>2613.0</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
         <v>151</v>
       </c>
-      <c r="G20" t="s">
-        <v>153</v>
-      </c>
       <c r="H20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J20" t="n">
-        <v>4.6</v>
+        <v>9.8</v>
       </c>
       <c r="K20" t="n">
         <v>3.0</v>
@@ -2351,43 +2342,43 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="O20" t="n">
         <v>4.0</v>
       </c>
-      <c r="O20" t="n">
-        <v>11.0</v>
-      </c>
       <c r="P20" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>29.0</v>
+        <v>5.0</v>
       </c>
       <c r="R20" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="S20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>8.0</v>
       </c>
-      <c r="T20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9.0</v>
-      </c>
       <c r="Z20" t="n">
-        <v>35.7</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="21">
@@ -2395,34 +2386,34 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>2603.0</v>
+        <v>82.0</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" t="s">
         <v>151</v>
       </c>
-      <c r="G21" t="s">
-        <v>153</v>
-      </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J21" t="n">
-        <v>9.8</v>
+        <v>23.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
@@ -2431,43 +2422,43 @@
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
       <c r="O21" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="X21" t="n">
         <v>4.0</v>
       </c>
-      <c r="P21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>7.0</v>
-      </c>
       <c r="Y21" t="n">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>46.7</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="22">
@@ -2475,31 +2466,31 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>82.0</v>
+        <v>1028.0</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
         <v>143</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J22" t="n">
-        <v>23.3</v>
+        <v>16.4</v>
       </c>
       <c r="K22" t="n">
         <v>2.0</v>
@@ -2511,25 +2502,25 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="R22" t="n">
         <v>20.0</v>
       </c>
-      <c r="O22" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>122.0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.0</v>
-      </c>
       <c r="S22" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U22" t="n">
         <v>0.0</v>
@@ -2538,16 +2529,16 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>71.0</v>
+        <v>97.0</v>
       </c>
       <c r="X22" t="n">
-        <v>4.0</v>
+        <v>22.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>16.0</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="23">
@@ -2555,31 +2546,31 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>1026.0</v>
+        <v>2395.0</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
         <v>145</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J23" t="n">
-        <v>16.4</v>
+        <v>9.6</v>
       </c>
       <c r="K23" t="n">
         <v>2.0</v>
@@ -2591,22 +2582,22 @@
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="O23" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="P23" t="n">
         <v>0.0</v>
       </c>
       <c r="Q23" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="R23" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="S23" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="T23" t="n">
         <v>0.0</v>
@@ -2618,16 +2609,16 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>97.0</v>
+        <v>35.0</v>
       </c>
       <c r="X23" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>56.4</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="24">
@@ -2635,31 +2626,31 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>2385.0</v>
+        <v>2611.0</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="J24" t="n">
-        <v>8.6</v>
+        <v>24.1</v>
       </c>
       <c r="K24" t="n">
         <v>2.0</v>
@@ -2671,22 +2662,22 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
       <c r="O24" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.0</v>
+        <v>55.0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="S24" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="T24" t="n">
         <v>0.0</v>
@@ -2698,16 +2689,16 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>29.0</v>
+        <v>127.0</v>
       </c>
       <c r="X24" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>78.6</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="25">
@@ -2715,31 +2706,31 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>2601.0</v>
+        <v>792.0</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J25" t="n">
-        <v>23.1</v>
+        <v>11.1</v>
       </c>
       <c r="K25" t="n">
         <v>2.0</v>
@@ -2751,22 +2742,22 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="O25" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="P25" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>54.0</v>
+        <v>0.0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="S25" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="T25" t="n">
         <v>0.0</v>
@@ -2778,16 +2769,16 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>119.0</v>
+        <v>58.0</v>
       </c>
       <c r="X25" t="n">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>60.6</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="26">
@@ -2795,31 +2786,31 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>791.0</v>
+        <v>1121.0</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" t="s">
         <v>151</v>
       </c>
-      <c r="G26" t="s">
-        <v>153</v>
-      </c>
       <c r="H26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J26" t="n">
-        <v>10.3</v>
+        <v>16.3</v>
       </c>
       <c r="K26" t="n">
         <v>2.0</v>
@@ -2831,19 +2822,19 @@
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="P26" t="n">
         <v>13.0</v>
       </c>
-      <c r="O26" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q26" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="R26" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="S26" t="n">
         <v>5.0</v>
@@ -2852,22 +2843,22 @@
         <v>0.0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V26" t="n">
         <v>0.0</v>
       </c>
       <c r="W26" t="n">
-        <v>54.0</v>
+        <v>43.0</v>
       </c>
       <c r="X26" t="n">
-        <v>27.0</v>
+        <v>17.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.0</v>
+        <v>43.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>73.0</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="27">
@@ -2875,31 +2866,31 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>1118.0</v>
+        <v>1406.0</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" t="s">
         <v>151</v>
       </c>
-      <c r="G27" t="s">
-        <v>153</v>
-      </c>
       <c r="H27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I27" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="J27" t="n">
-        <v>16.3</v>
+        <v>13.0</v>
       </c>
       <c r="K27" t="n">
         <v>2.0</v>
@@ -2911,43 +2902,43 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="O27" t="n">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
       <c r="P27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="X27" t="n">
         <v>13.0</v>
       </c>
-      <c r="Q27" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>17.0</v>
-      </c>
       <c r="Y27" t="n">
-        <v>43.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>28.3</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="28">
@@ -2955,31 +2946,31 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>1400.0</v>
+        <v>2090.0</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" t="s">
         <v>151</v>
       </c>
-      <c r="G28" t="s">
-        <v>153</v>
-      </c>
       <c r="H28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I28" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J28" t="n">
-        <v>12.0</v>
+        <v>21.1</v>
       </c>
       <c r="K28" t="n">
         <v>2.0</v>
@@ -2991,25 +2982,25 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="O28" t="n">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="P28" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="S28" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U28" t="n">
         <v>0.0</v>
@@ -3018,16 +3009,16 @@
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>61.0</v>
+        <v>69.0</v>
       </c>
       <c r="X28" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>39.3</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="29">
@@ -3035,31 +3026,31 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>2082.0</v>
+        <v>2549.0</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" t="s">
         <v>151</v>
       </c>
-      <c r="G29" t="s">
-        <v>153</v>
-      </c>
       <c r="H29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I29" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="J29" t="n">
-        <v>20.3</v>
+        <v>13.0</v>
       </c>
       <c r="K29" t="n">
         <v>2.0</v>
@@ -3071,25 +3062,25 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S29" t="n">
         <v>9.0</v>
       </c>
-      <c r="O29" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>6.0</v>
-      </c>
       <c r="T29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U29" t="n">
         <v>0.0</v>
@@ -3098,16 +3089,16 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>65.0</v>
+        <v>56.0</v>
       </c>
       <c r="X29" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>21.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>36.4</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="30">
@@ -3115,31 +3106,31 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>622.0</v>
+        <v>623.0</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J30" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="K30" t="n">
         <v>1.0</v>
@@ -3151,7 +3142,7 @@
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="O30" t="n">
         <v>3.0</v>
@@ -3160,10 +3151,10 @@
         <v>0.0</v>
       </c>
       <c r="Q30" t="n">
-        <v>62.0</v>
+        <v>74.0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S30" t="n">
         <v>3.0</v>
@@ -3178,16 +3169,16 @@
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="X30" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y30" t="n">
         <v>3.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>50.0</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="31">
@@ -3195,31 +3186,31 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>840.0</v>
+        <v>841.0</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J31" t="n">
-        <v>23.7</v>
+        <v>24.7</v>
       </c>
       <c r="K31" t="n">
         <v>1.0</v>
@@ -3234,16 +3225,16 @@
         <v>10.0</v>
       </c>
       <c r="O31" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="P31" t="n">
         <v>3.0</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.0</v>
+        <v>64.0</v>
       </c>
       <c r="R31" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="S31" t="n">
         <v>13.0</v>
@@ -3258,16 +3249,16 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>100.0</v>
+        <v>105.0</v>
       </c>
       <c r="X31" t="n">
         <v>6.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>31.6</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="32">
@@ -3275,31 +3266,31 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>1029.0</v>
+        <v>1031.0</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J32" t="n">
-        <v>19.4</v>
+        <v>20.4</v>
       </c>
       <c r="K32" t="n">
         <v>1.0</v>
@@ -3311,10 +3302,10 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="O32" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="P32" t="n">
         <v>1.0</v>
@@ -3344,10 +3335,10 @@
         <v>27.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>47.4</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="33">
@@ -3355,28 +3346,28 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>1396.0</v>
+        <v>1402.0</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" t="s">
         <v>150</v>
       </c>
-      <c r="F33" t="s">
-        <v>152</v>
-      </c>
       <c r="G33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I33" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J33" t="n">
         <v>5.0</v>
@@ -3435,28 +3426,28 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>781.0</v>
+        <v>782.0</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F34" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" t="s">
         <v>151</v>
       </c>
-      <c r="G34" t="s">
-        <v>153</v>
-      </c>
       <c r="H34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I34" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J34" t="n">
         <v>9.9</v>
@@ -3515,28 +3506,28 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1623.0</v>
+        <v>1630.0</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" t="s">
         <v>151</v>
       </c>
-      <c r="G35" t="s">
-        <v>153</v>
-      </c>
       <c r="H35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J35" t="n">
         <v>1.5</v>
@@ -3595,28 +3586,28 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1723.0</v>
+        <v>1730.0</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" t="s">
         <v>151</v>
       </c>
-      <c r="G36" t="s">
-        <v>153</v>
-      </c>
       <c r="H36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J36" t="n">
         <v>4.4</v>
@@ -3675,34 +3666,34 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>2539.0</v>
+        <v>45.0</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" t="s">
         <v>151</v>
       </c>
-      <c r="G37" t="s">
-        <v>153</v>
-      </c>
       <c r="H37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J37" t="n">
-        <v>12.0</v>
+        <v>18.2</v>
       </c>
       <c r="K37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
@@ -3711,22 +3702,22 @@
         <v>0.0</v>
       </c>
       <c r="N37" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="R37" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="S37" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="T37" t="n">
         <v>0.0</v>
@@ -3738,16 +3729,16 @@
         <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>56.0</v>
+        <v>101.0</v>
       </c>
       <c r="X37" t="n">
-        <v>19.0</v>
+        <v>39.0</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="Z37" t="n">
-        <v>79.2</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="38">
@@ -3755,31 +3746,31 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>45.0</v>
+        <v>312.0</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I38" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="J38" t="n">
-        <v>17.2</v>
+        <v>2.0</v>
       </c>
       <c r="K38" t="n">
         <v>0.0</v>
@@ -3791,43 +3782,43 @@
         <v>0.0</v>
       </c>
       <c r="N38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W38" t="n">
         <v>8.0</v>
       </c>
-      <c r="O38" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>98.0</v>
-      </c>
       <c r="X38" t="n">
-        <v>36.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y38" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z38" t="n">
-        <v>63.2</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="39">
@@ -3835,31 +3826,31 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>311.0</v>
+        <v>667.0</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I39" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J39" t="n">
-        <v>2.0</v>
+        <v>21.4</v>
       </c>
       <c r="K39" t="n">
         <v>0.0</v>
@@ -3871,43 +3862,43 @@
         <v>0.0</v>
       </c>
       <c r="N39" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="O39" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="P39" t="n">
         <v>0.0</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="T39" t="n">
         <v>0.0</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W39" t="n">
-        <v>8.0</v>
+        <v>85.0</v>
       </c>
       <c r="X39" t="n">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="Z39" t="n">
-        <v>100.0</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="40">
@@ -3915,31 +3906,31 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>666.0</v>
+        <v>950.0</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I40" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J40" t="n">
-        <v>20.4</v>
+        <v>0.2</v>
       </c>
       <c r="K40" t="n">
         <v>0.0</v>
@@ -3951,43 +3942,43 @@
         <v>0.0</v>
       </c>
       <c r="N40" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="O40" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="S40" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="T40" t="n">
         <v>0.0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W40" t="n">
-        <v>84.0</v>
+        <v>1.0</v>
       </c>
       <c r="X40" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z40" t="n">
-        <v>50.8</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -3995,31 +3986,31 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>949.0</v>
+        <v>1358.0</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H41" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I41" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K41" t="n">
         <v>0.0</v>
@@ -4031,43 +4022,43 @@
         <v>0.0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O41" t="n">
         <v>0.0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W41" t="n">
         <v>2.0</v>
       </c>
-      <c r="R41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.0</v>
-      </c>
       <c r="X41" t="n">
         <v>0.0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="Z41" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42">
@@ -4075,31 +4066,31 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1353.0</v>
+        <v>1833.0</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I42" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1</v>
+        <v>5.6</v>
       </c>
       <c r="K42" t="n">
         <v>0.0</v>
@@ -4111,22 +4102,22 @@
         <v>0.0</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="R42" t="n">
         <v>0.0</v>
       </c>
       <c r="S42" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T42" t="n">
         <v>0.0</v>
@@ -4138,16 +4129,16 @@
         <v>0.0</v>
       </c>
       <c r="W42" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z42" t="e">
-        <v>#N/A</v>
+        <v>6.0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="43">
@@ -4155,31 +4146,31 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1825.0</v>
+        <v>1898.0</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I43" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J43" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="K43" t="n">
         <v>0.0</v>
@@ -4191,22 +4182,22 @@
         <v>0.0</v>
       </c>
       <c r="N43" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="O43" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="R43" t="n">
         <v>0.0</v>
       </c>
       <c r="S43" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="T43" t="n">
         <v>0.0</v>
@@ -4218,16 +4209,16 @@
         <v>0.0</v>
       </c>
       <c r="W43" t="n">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
       <c r="X43" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y43" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="Z43" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44">
@@ -4235,31 +4226,31 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1890.0</v>
+        <v>662.0</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H44" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J44" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="K44" t="n">
         <v>0.0</v>
@@ -4274,7 +4265,7 @@
         <v>0.0</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P44" t="n">
         <v>0.0</v>
@@ -4286,7 +4277,7 @@
         <v>0.0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T44" t="n">
         <v>0.0</v>
@@ -4298,16 +4289,16 @@
         <v>0.0</v>
       </c>
       <c r="W44" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="X44" t="n">
         <v>0.0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z44" t="e">
-        <v>#N/A</v>
+        <v>1.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -4315,31 +4306,31 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>661.0</v>
+        <v>852.0</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F45" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" t="s">
         <v>151</v>
       </c>
-      <c r="G45" t="s">
-        <v>153</v>
-      </c>
       <c r="H45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I45" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K45" t="n">
         <v>0.0</v>
@@ -4351,10 +4342,10 @@
         <v>0.0</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P45" t="n">
         <v>0.0</v>
@@ -4366,7 +4357,7 @@
         <v>0.0</v>
       </c>
       <c r="S45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T45" t="n">
         <v>0.0</v>
@@ -4378,13 +4369,13 @@
         <v>0.0</v>
       </c>
       <c r="W45" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="X45" t="n">
         <v>0.0</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z45" t="n">
         <v>0.0</v>
@@ -4395,31 +4386,31 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>851.0</v>
+        <v>965.0</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F46" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" t="s">
         <v>151</v>
       </c>
-      <c r="G46" t="s">
-        <v>153</v>
-      </c>
       <c r="H46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I46" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J46" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="K46" t="n">
         <v>0.0</v>
@@ -4434,7 +4425,7 @@
         <v>0.0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P46" t="n">
         <v>0.0</v>
@@ -4443,10 +4434,10 @@
         <v>0.0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T46" t="n">
         <v>0.0</v>
@@ -4458,16 +4449,16 @@
         <v>0.0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="X46" t="n">
         <v>0.0</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="Z46" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47">
@@ -4475,31 +4466,31 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>963.0</v>
+        <v>1234.0</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F47" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" t="s">
         <v>151</v>
       </c>
-      <c r="G47" t="s">
-        <v>153</v>
-      </c>
       <c r="H47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I47" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="K47" t="n">
         <v>0.0</v>
@@ -4511,10 +4502,10 @@
         <v>0.0</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P47" t="n">
         <v>0.0</v>
@@ -4523,10 +4514,10 @@
         <v>0.0</v>
       </c>
       <c r="R47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T47" t="n">
         <v>0.0</v>
@@ -4538,16 +4529,16 @@
         <v>0.0</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="X47" t="n">
         <v>0.0</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z47" t="e">
-        <v>#N/A</v>
+        <v>1.0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -4555,31 +4546,31 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>1231.0</v>
+        <v>1554.0</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" t="s">
         <v>151</v>
       </c>
-      <c r="G48" t="s">
-        <v>153</v>
-      </c>
       <c r="H48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I48" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9</v>
+        <v>5.0</v>
       </c>
       <c r="K48" t="n">
         <v>0.0</v>
@@ -4591,13 +4582,13 @@
         <v>0.0</v>
       </c>
       <c r="N48" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q48" t="n">
         <v>0.0</v>
@@ -4606,10 +4597,10 @@
         <v>0.0</v>
       </c>
       <c r="S48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U48" t="n">
         <v>0.0</v>
@@ -4618,16 +4609,16 @@
         <v>0.0</v>
       </c>
       <c r="W48" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="X48" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.0</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="49">
@@ -4635,159 +4626,79 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>1547.0</v>
+        <v>1624.0</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F49" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" t="s">
         <v>151</v>
       </c>
-      <c r="G49" t="s">
-        <v>153</v>
-      </c>
       <c r="H49" t="s">
+        <v>199</v>
+      </c>
+      <c r="I49" t="s">
         <v>201</v>
       </c>
-      <c r="I49" t="s">
-        <v>206</v>
-      </c>
       <c r="J49" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P49" t="n">
         <v>5.0</v>
       </c>
-      <c r="K49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Q49" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="S49" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="T49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V49" t="n">
         <v>0.0</v>
       </c>
       <c r="W49" t="n">
-        <v>9.0</v>
+        <v>68.0</v>
       </c>
       <c r="X49" t="n">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="Y49" t="n">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
       <c r="Z49" t="n">
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1617.0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" t="s">
-        <v>151</v>
-      </c>
-      <c r="G50" t="s">
-        <v>153</v>
-      </c>
-      <c r="H50" t="s">
-        <v>202</v>
-      </c>
-      <c r="I50" t="s">
-        <v>204</v>
-      </c>
-      <c r="J50" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R50" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="S50" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W50" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="X50" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>44.9</v>
+        <v>41.8</v>
       </c>
     </row>
   </sheetData>
@@ -4830,79 +4741,79 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
       </c>
       <c r="N1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" t="s">
         <v>222</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>223</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>224</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>225</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>226</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>227</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>228</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>229</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>230</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>231</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>232</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>233</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>234</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>235</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>236</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>237</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>238</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>239</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2">
@@ -4910,52 +4821,52 @@
         <v>55</v>
       </c>
       <c r="B2" t="n">
-        <v>1029.0</v>
+        <v>1031.0</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="K2" t="n">
         <v>21.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20.0</v>
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>19.4</v>
+        <v>20.4</v>
       </c>
       <c r="N2" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="O2" t="n">
         <v>5.0</v>
       </c>
       <c r="P2" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="R2" t="n">
         <v>3.0</v>
@@ -4970,16 +4881,16 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>19.2</v>
+        <v>20.8</v>
       </c>
       <c r="W2" t="n">
-        <v>16.1</v>
+        <v>17.7</v>
       </c>
       <c r="X2" t="n">
         <v>3.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.7</v>
+        <v>21.4</v>
       </c>
       <c r="Z2" t="n">
         <v>19.0</v>
@@ -4988,25 +4899,25 @@
         <v>16.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.0</v>
+        <v>92.0</v>
       </c>
       <c r="AC2" t="n">
         <v>0.88</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AG2" t="n">
         <v>0.98</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="3">
@@ -5014,52 +4925,52 @@
         <v>54</v>
       </c>
       <c r="B3" t="n">
-        <v>840.0</v>
+        <v>841.0</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J3" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="K3" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="L3" t="e">
         <v>#N/A</v>
       </c>
       <c r="M3" t="n">
-        <v>23.7</v>
+        <v>24.7</v>
       </c>
       <c r="N3" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="O3" t="n">
         <v>7.0</v>
       </c>
       <c r="P3" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="R3" t="n">
         <v>0.0</v>
@@ -5074,75 +4985,75 @@
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>7.2</v>
+        <v>8.2</v>
       </c>
       <c r="W3" t="n">
-        <v>7.2</v>
+        <v>8.2</v>
       </c>
       <c r="X3" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>14.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.0</v>
+        <v>136.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.0</v>
+        <v>215.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
         <v>82.0</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J4" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="K4" t="n">
         <v>25.0</v>
@@ -5151,16 +5062,16 @@
         <v>#N/A</v>
       </c>
       <c r="M4" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="N4" t="n">
         <v>8.0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="P4" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="Q4" t="n">
         <v>7.0</v>
@@ -5184,34 +5095,34 @@
         <v>8.2</v>
       </c>
       <c r="X4" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.0</v>
+        <v>85.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.0</v>
+        <v>135.0</v>
       </c>
       <c r="AC4" t="n">
         <v>0.34</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AF4" t="n">
         <v>0.3</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.56</v>
+        <v>0.59</v>
       </c>
       <c r="AH4" t="n">
         <v>0.38</v>
@@ -5219,31 +5130,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="n">
-        <v>1118.0</v>
+        <v>1121.0</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" t="s">
         <v>151</v>
       </c>
-      <c r="G5" t="s">
-        <v>153</v>
-      </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J5" t="n">
         <v>20.0</v>
@@ -5323,43 +5234,43 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="n">
-        <v>1617.0</v>
+        <v>1624.0</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
         <v>142</v>
       </c>
-      <c r="E6" t="s">
-        <v>144</v>
-      </c>
       <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" t="s">
         <v>151</v>
       </c>
-      <c r="G6" t="s">
-        <v>153</v>
-      </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J6" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K6" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="L6" t="e">
         <v>#N/A</v>
       </c>
       <c r="M6" t="n">
-        <v>14.4</v>
+        <v>15.4</v>
       </c>
       <c r="N6" t="n">
         <v>7.0</v>
@@ -5398,31 +5309,31 @@
         <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="AD6" t="n">
         <v>0.07</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.56</v>
+        <v>0.52</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.56</v>
+        <v>0.52</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
@@ -5430,49 +5341,49 @@
         <v>26</v>
       </c>
       <c r="B7" t="n">
-        <v>2134.0</v>
+        <v>2143.0</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" t="s">
         <v>153</v>
       </c>
-      <c r="H7" t="s">
-        <v>155</v>
-      </c>
       <c r="I7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J7" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K7" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L7" t="e">
         <v>#N/A</v>
       </c>
       <c r="M7" t="n">
-        <v>22.1</v>
+        <v>23.1</v>
       </c>
       <c r="N7" t="n">
         <v>6.0</v>
       </c>
       <c r="O7" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="P7" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q7" t="n">
         <v>6.0</v>
@@ -5490,40 +5401,40 @@
         <v>1.0</v>
       </c>
       <c r="V7" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="W7" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="X7" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>238.0</v>
+        <v>261.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="AH7" t="n">
         <v>0.14</v>
@@ -5534,40 +5445,40 @@
         <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>2301.0</v>
+        <v>2311.0</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J8" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="K8" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="L8" t="e">
         <v>#N/A</v>
       </c>
       <c r="M8" t="n">
-        <v>19.1</v>
+        <v>20.1</v>
       </c>
       <c r="N8" t="n">
         <v>6.0</v>
@@ -5594,90 +5505,90 @@
         <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="W8" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="X8" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>103.0</v>
+        <v>109.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>125.0</v>
+        <v>131.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>168.0</v>
+        <v>186.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B9" t="n">
-        <v>904.0</v>
+        <v>2090.0</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
         <v>151</v>
       </c>
-      <c r="G9" t="s">
-        <v>153</v>
-      </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="I9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J9" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="K9" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="L9" t="e">
         <v>#N/A</v>
       </c>
       <c r="M9" t="n">
-        <v>17.8</v>
+        <v>21.1</v>
       </c>
       <c r="N9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="O9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="P9" t="n">
         <v>8.0</v>
@@ -5686,156 +5597,156 @@
         <v>5.0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="U9" t="n">
         <v>0.0</v>
       </c>
       <c r="V9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="W9" t="n">
         <v>5.4</v>
       </c>
-      <c r="W9" t="n">
-        <v>5.3</v>
-      </c>
       <c r="X9" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.7</v>
+        <v>7.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>115.0</v>
+        <v>83.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>43.0</v>
+        <v>55.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>180.0</v>
+        <v>155.0</v>
       </c>
       <c r="AC9" t="n">
         <v>0.28</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
-        <v>2082.0</v>
+        <v>905.0</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" t="s">
         <v>151</v>
       </c>
-      <c r="G10" t="s">
-        <v>153</v>
-      </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="J10" t="n">
         <v>25.0</v>
       </c>
       <c r="K10" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="L10" t="e">
         <v>#N/A</v>
       </c>
       <c r="M10" t="n">
-        <v>20.3</v>
+        <v>18.7</v>
       </c>
       <c r="N10" t="n">
         <v>5.0</v>
       </c>
       <c r="O10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P10" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T10" t="n">
         <v>4.0</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.0</v>
-      </c>
       <c r="U10" t="n">
         <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>6.0</v>
+        <v>5.4</v>
       </c>
       <c r="W10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X10" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.4</v>
+        <v>9.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>82.0</v>
+        <v>116.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>55.0</v>
+        <v>43.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>150.0</v>
+        <v>184.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="AH10" t="n">
         <v>0.29</v>
@@ -5846,28 +5757,28 @@
         <v>30</v>
       </c>
       <c r="B11" t="n">
-        <v>980.0</v>
+        <v>982.0</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J11" t="n">
         <v>14.0</v>
@@ -5950,49 +5861,49 @@
         <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>818.0</v>
+        <v>819.0</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" t="s">
         <v>151</v>
       </c>
-      <c r="G12" t="s">
-        <v>153</v>
-      </c>
       <c r="H12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J12" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K12" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="L12" t="e">
         <v>#N/A</v>
       </c>
       <c r="M12" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="N12" t="n">
         <v>3.0</v>
       </c>
       <c r="O12" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="P12" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="Q12" t="n">
         <v>2.0</v>
@@ -6016,37 +5927,37 @@
         <v>4.6</v>
       </c>
       <c r="X12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>47.0</v>
+        <v>52.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>214.0</v>
+        <v>217.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>125.0</v>
+        <v>129.0</v>
       </c>
       <c r="AC12" t="n">
         <v>0.12</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="AF12" t="n">
         <v>0.08</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="13">
@@ -6057,25 +5968,25 @@
         <v>43.0</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J13" t="n">
         <v>19.0</v>
@@ -6155,43 +6066,43 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" t="n">
         <v>45.0</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J14" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K14" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="L14" t="e">
         <v>#N/A</v>
       </c>
       <c r="M14" t="n">
-        <v>17.2</v>
+        <v>18.2</v>
       </c>
       <c r="N14" t="n">
         <v>2.0</v>
@@ -6230,31 +6141,31 @@
         <v>2.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>89.0</v>
+        <v>99.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="15">
@@ -6262,40 +6173,40 @@
         <v>36</v>
       </c>
       <c r="B15" t="n">
-        <v>705.0</v>
+        <v>706.0</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J15" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="K15" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
       </c>
       <c r="M15" t="n">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="N15" t="n">
         <v>2.0</v>
@@ -6322,40 +6233,40 @@
         <v>0.0</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>154.0</v>
+        <v>161.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>196.0</v>
+        <v>216.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.56</v>
+        <v>0.54</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.56</v>
+        <v>0.54</v>
       </c>
       <c r="AH15" t="n">
         <v>0.1</v>
@@ -6363,40 +6274,40 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" t="n">
-        <v>311.0</v>
+        <v>312.0</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J16" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K16" t="n">
         <v>1.0</v>
       </c>
       <c r="L16" t="n">
-        <v>179.0</v>
+        <v>180.0</v>
       </c>
       <c r="M16" t="n">
         <v>2.0</v>
@@ -6453,13 +6364,13 @@
         <v>0.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.01</v>
+        <v>1.0</v>
       </c>
       <c r="AF16" t="n">
         <v>0.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.01</v>
+        <v>1.0</v>
       </c>
       <c r="AH16" t="n">
         <v>0.64</v>
@@ -6470,40 +6381,40 @@
         <v>53</v>
       </c>
       <c r="B17" t="n">
-        <v>622.0</v>
+        <v>623.0</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J17" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K17" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L17" t="n">
-        <v>335.0</v>
+        <v>425.0</v>
       </c>
       <c r="M17" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="N17" t="n">
         <v>1.0</v>
@@ -6530,43 +6441,43 @@
         <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="W17" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="X17" t="n">
-        <v>3.2</v>
+        <v>4.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.9</v>
+        <v>5.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>33.0</v>
+        <v>47.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>42.0</v>
+        <v>58.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.07</v>
+        <v>0.85</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.34</v>
+        <v>1.06</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.34</v>
+        <v>1.06</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18">
@@ -6574,28 +6485,28 @@
         <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>1396.0</v>
+        <v>1402.0</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" t="s">
         <v>150</v>
       </c>
-      <c r="F18" t="s">
-        <v>152</v>
-      </c>
       <c r="G18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J18" t="n">
         <v>10.0</v>
@@ -6678,40 +6589,40 @@
         <v>33</v>
       </c>
       <c r="B19" t="n">
-        <v>459.0</v>
+        <v>460.0</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
         <v>151</v>
       </c>
-      <c r="G19" t="s">
-        <v>153</v>
-      </c>
       <c r="H19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J19" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="K19" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>997.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="L19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M19" t="n">
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="N19" t="n">
         <v>1.0</v>
@@ -6753,28 +6664,28 @@
         <v>8.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="AB19" t="n">
         <v>28.0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="20">
@@ -6782,40 +6693,40 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>598.0</v>
+        <v>599.0</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
         <v>151</v>
       </c>
-      <c r="G20" t="s">
-        <v>153</v>
-      </c>
       <c r="H20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J20" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="K20" t="n">
         <v>24.0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>23.0</v>
       </c>
       <c r="L20" t="e">
         <v>#N/A</v>
       </c>
       <c r="M20" t="n">
-        <v>23.3</v>
+        <v>24.3</v>
       </c>
       <c r="N20" t="n">
         <v>1.0</v>
@@ -6854,28 +6765,28 @@
         <v>2.7</v>
       </c>
       <c r="Z20" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="AA20" t="n">
         <v>88.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>85.0</v>
+        <v>84.0</v>
       </c>
       <c r="AC20" t="n">
         <v>0.04</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AF20" t="n">
         <v>0.04</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AH20" t="n">
         <v>0.04</v>
@@ -6886,28 +6797,28 @@
         <v>57</v>
       </c>
       <c r="B21" t="n">
-        <v>781.0</v>
+        <v>782.0</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
         <v>151</v>
       </c>
-      <c r="G21" t="s">
-        <v>153</v>
-      </c>
       <c r="H21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J21" t="n">
         <v>16.0</v>
@@ -6952,10 +6863,10 @@
         <v>0.7</v>
       </c>
       <c r="X21" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Z21" t="n">
         <v>18.0</v>
@@ -6987,43 +6898,43 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>1400.0</v>
+        <v>1406.0</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" t="s">
         <v>151</v>
       </c>
-      <c r="G22" t="s">
-        <v>153</v>
-      </c>
       <c r="H22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J22" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="K22" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="L22" t="e">
         <v>#N/A</v>
       </c>
       <c r="M22" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="N22" t="n">
         <v>1.0</v>
@@ -7050,22 +6961,22 @@
         <v>0.0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W22" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="X22" t="n">
         <v>0.3</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Z22" t="n">
         <v>16.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="AB22" t="n">
         <v>17.0</v>
@@ -7077,13 +6988,13 @@
         <v>0.08</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AF22" t="n">
         <v>0.08</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AH22" t="n">
         <v>0.03</v>
@@ -7094,28 +7005,28 @@
         <v>40</v>
       </c>
       <c r="B23" t="n">
-        <v>1481.0</v>
+        <v>1488.0</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" t="s">
         <v>151</v>
       </c>
-      <c r="G23" t="s">
-        <v>153</v>
-      </c>
       <c r="H23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J23" t="n">
         <v>16.0</v>
@@ -7160,7 +7071,7 @@
         <v>1.7</v>
       </c>
       <c r="X23" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Y23" t="n">
         <v>3.0</v>
@@ -7198,40 +7109,40 @@
         <v>41</v>
       </c>
       <c r="B24" t="n">
-        <v>1489.0</v>
+        <v>1496.0</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" t="s">
         <v>151</v>
       </c>
-      <c r="G24" t="s">
-        <v>153</v>
-      </c>
       <c r="H24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J24" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K24" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>947.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="L24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M24" t="n">
-        <v>10.5</v>
+        <v>11.4</v>
       </c>
       <c r="N24" t="n">
         <v>1.0</v>
@@ -7270,28 +7181,28 @@
         <v>0.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA24" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AD24" t="n">
         <v>0.0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH24" t="n">
         <v>0.02</v>
@@ -7299,31 +7210,31 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" t="n">
-        <v>1547.0</v>
+        <v>1554.0</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" t="s">
         <v>151</v>
       </c>
-      <c r="G25" t="s">
-        <v>153</v>
-      </c>
       <c r="H25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J25" t="n">
         <v>13.0</v>
@@ -7406,28 +7317,28 @@
         <v>58</v>
       </c>
       <c r="B26" t="n">
-        <v>1623.0</v>
+        <v>1630.0</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" t="s">
         <v>151</v>
       </c>
-      <c r="G26" t="s">
-        <v>153</v>
-      </c>
       <c r="H26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J26" t="n">
         <v>5.0</v>
@@ -7507,43 +7418,43 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B27" t="n">
-        <v>2539.0</v>
+        <v>2549.0</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" t="s">
         <v>151</v>
       </c>
-      <c r="G27" t="s">
-        <v>153</v>
-      </c>
       <c r="H27" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J27" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="K27" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="L27" t="e">
         <v>#N/A</v>
       </c>
       <c r="M27" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="N27" t="n">
         <v>1.0</v>
@@ -7564,7 +7475,7 @@
         <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
@@ -7585,10 +7496,10 @@
         <v>15.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC27" t="n">
         <v>0.08</v>
@@ -7611,43 +7522,43 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n">
-        <v>666.0</v>
+        <v>667.0</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H28" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J28" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="K28" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="L28" t="e">
         <v>#N/A</v>
       </c>
       <c r="M28" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -7689,10 +7600,10 @@
         <v>30.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>123.0</v>
+        <v>132.0</v>
       </c>
       <c r="AB28" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AC28" t="n">
         <v>0.0</v>
@@ -7718,40 +7629,40 @@
         <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>755.0</v>
+        <v>756.0</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J29" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K29" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="L29" t="e">
         <v>#N/A</v>
       </c>
       <c r="M29" t="n">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -7819,31 +7730,31 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" t="n">
-        <v>949.0</v>
+        <v>950.0</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I30" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J30" t="n">
         <v>3.0</v>
@@ -7923,31 +7834,31 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="n">
-        <v>1026.0</v>
+        <v>1028.0</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J31" t="n">
         <v>18.0</v>
@@ -8030,28 +7941,28 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>1310.0</v>
+        <v>1313.0</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J32" t="n">
         <v>19.0</v>
@@ -8131,31 +8042,31 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" t="n">
-        <v>1353.0</v>
+        <v>1358.0</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H33" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I33" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J33" t="n">
         <v>1.0</v>
@@ -8235,31 +8146,31 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" t="n">
-        <v>1825.0</v>
+        <v>1833.0</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H34" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J34" t="n">
         <v>11.0</v>
@@ -8339,31 +8250,31 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" t="n">
-        <v>1890.0</v>
+        <v>1898.0</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I35" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J35" t="n">
         <v>2.0</v>
@@ -8443,43 +8354,43 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" t="n">
-        <v>2385.0</v>
+        <v>2395.0</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I36" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J36" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K36" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L36" t="n">
-        <v>772.0</v>
+        <v>862.0</v>
       </c>
       <c r="M36" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -8518,13 +8429,13 @@
         <v>0.4</v>
       </c>
       <c r="Z36" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA36" t="n">
-        <v>38.0</v>
+        <v>49.0</v>
       </c>
       <c r="AB36" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="AC36" t="n">
         <v>0.0</v>
@@ -8547,43 +8458,43 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" t="n">
-        <v>2601.0</v>
+        <v>2611.0</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J37" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="K37" t="n">
         <v>24.0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>23.0</v>
       </c>
       <c r="L37" t="e">
         <v>#N/A</v>
       </c>
       <c r="M37" t="n">
-        <v>23.1</v>
+        <v>24.1</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -8610,10 +8521,10 @@
         <v>0.0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W37" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="X37" t="n">
         <v>2.3</v>
@@ -8622,31 +8533,31 @@
         <v>2.7</v>
       </c>
       <c r="Z37" t="n">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
       <c r="AA37" t="n">
-        <v>120.0</v>
+        <v>134.0</v>
       </c>
       <c r="AB37" t="n">
-        <v>145.0</v>
+        <v>148.0</v>
       </c>
       <c r="AC37" t="n">
         <v>0.0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AF37" t="n">
         <v>0.0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="38">
@@ -8657,37 +8568,37 @@
         <v>97.0</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" t="s">
         <v>151</v>
       </c>
-      <c r="G38" t="s">
-        <v>153</v>
-      </c>
       <c r="H38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I38" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J38" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K38" t="n">
         <v>7.0</v>
       </c>
       <c r="L38" t="n">
-        <v>619.0</v>
+        <v>628.0</v>
       </c>
       <c r="M38" t="n">
-        <v>6.9</v>
+        <v>7.0</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -8761,37 +8672,37 @@
         <v>110.0</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" t="s">
         <v>151</v>
       </c>
-      <c r="G39" t="s">
-        <v>153</v>
-      </c>
       <c r="H39" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I39" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J39" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="K39" t="n">
         <v>11.0</v>
       </c>
       <c r="L39" t="n">
-        <v>929.0</v>
+        <v>945.0</v>
       </c>
       <c r="M39" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -8859,31 +8770,31 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" t="n">
-        <v>661.0</v>
+        <v>662.0</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F40" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" t="s">
         <v>151</v>
       </c>
-      <c r="G40" t="s">
-        <v>153</v>
-      </c>
       <c r="H40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I40" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J40" t="n">
         <v>2.0</v>
@@ -8963,43 +8874,43 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>791.0</v>
+        <v>792.0</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" t="s">
         <v>151</v>
       </c>
-      <c r="G41" t="s">
-        <v>153</v>
-      </c>
       <c r="H41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I41" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J41" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="K41" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L41" t="n">
-        <v>930.0</v>
+        <v>998.0</v>
       </c>
       <c r="M41" t="n">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -9041,7 +8952,7 @@
         <v>5.0</v>
       </c>
       <c r="AA41" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="AB41" t="n">
         <v>1.0</v>
@@ -9050,16 +8961,16 @@
         <v>0.0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF41" t="n">
         <v>0.0</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH41" t="n">
         <v>0.01</v>
@@ -9067,43 +8978,43 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" t="n">
-        <v>851.0</v>
+        <v>852.0</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F42" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" t="s">
         <v>151</v>
       </c>
-      <c r="G42" t="s">
-        <v>153</v>
-      </c>
       <c r="H42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J42" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K42" t="n">
         <v>1.0</v>
       </c>
       <c r="L42" t="n">
-        <v>57.0</v>
+        <v>66.0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -9136,7 +9047,7 @@
         <v>0.0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y42" t="n">
         <v>0.2</v>
@@ -9154,16 +9065,16 @@
         <v>0.0</v>
       </c>
       <c r="AD42" t="n">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="AE42" t="n">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="AF42" t="n">
         <v>0.0</v>
       </c>
       <c r="AG42" t="n">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="AH42" t="n">
         <v>0.04</v>
@@ -9171,31 +9082,31 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" t="n">
-        <v>963.0</v>
+        <v>965.0</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" t="s">
         <v>151</v>
       </c>
-      <c r="G43" t="s">
-        <v>153</v>
-      </c>
       <c r="H43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I43" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J43" t="n">
         <v>1.0</v>
@@ -9275,43 +9186,43 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" t="n">
-        <v>1231.0</v>
+        <v>1234.0</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F44" t="s">
+        <v>149</v>
+      </c>
+      <c r="G44" t="s">
         <v>151</v>
       </c>
-      <c r="G44" t="s">
-        <v>153</v>
-      </c>
       <c r="H44" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I44" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J44" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K44" t="n">
         <v>1.0</v>
       </c>
       <c r="L44" t="n">
-        <v>85.0</v>
+        <v>107.0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -9382,28 +9293,28 @@
         <v>42</v>
       </c>
       <c r="B45" t="n">
-        <v>1557.0</v>
+        <v>1564.0</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F45" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" t="s">
         <v>151</v>
       </c>
-      <c r="G45" t="s">
-        <v>153</v>
-      </c>
       <c r="H45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I45" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J45" t="n">
         <v>8.0</v>
@@ -9486,28 +9397,28 @@
         <v>59</v>
       </c>
       <c r="B46" t="n">
-        <v>1723.0</v>
+        <v>1730.0</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F46" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" t="s">
         <v>151</v>
       </c>
-      <c r="G46" t="s">
-        <v>153</v>
-      </c>
       <c r="H46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J46" t="n">
         <v>8.0</v>
@@ -9590,40 +9501,40 @@
         <v>35</v>
       </c>
       <c r="B47" t="n">
-        <v>1873.0</v>
+        <v>1881.0</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F47" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" t="s">
         <v>151</v>
       </c>
-      <c r="G47" t="s">
-        <v>153</v>
-      </c>
       <c r="H47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I47" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J47" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="K47" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="L47" t="e">
         <v>#N/A</v>
       </c>
       <c r="M47" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -9665,7 +9576,7 @@
         <v>1.0</v>
       </c>
       <c r="AA47" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB47" t="n">
         <v>0.0</v>
@@ -9691,43 +9602,43 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B48" t="n">
-        <v>2093.0</v>
+        <v>2303.0</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" t="s">
         <v>151</v>
       </c>
-      <c r="G48" t="s">
-        <v>153</v>
-      </c>
       <c r="H48" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="I48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J48" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="K48" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="L48" t="n">
-        <v>412.0</v>
+        <v>959.0</v>
       </c>
       <c r="M48" t="n">
-        <v>4.6</v>
+        <v>10.7</v>
       </c>
       <c r="N48" t="n">
         <v>0.0</v>
@@ -9748,31 +9659,31 @@
         <v>0.0</v>
       </c>
       <c r="T48" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="U48" t="n">
         <v>0.0</v>
       </c>
       <c r="V48" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W48" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="X48" t="n">
-        <v>0.7</v>
+        <v>1.0</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="Z48" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA48" t="n">
-        <v>27.0</v>
+        <v>45.0</v>
       </c>
       <c r="AB48" t="n">
-        <v>38.0</v>
+        <v>30.0</v>
       </c>
       <c r="AC48" t="n">
         <v>0.0</v>
@@ -9790,57 +9701,57 @@
         <v>0.0</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B49" t="n">
-        <v>2293.0</v>
+        <v>2613.0</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F49" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" t="s">
         <v>151</v>
       </c>
-      <c r="G49" t="s">
-        <v>153</v>
-      </c>
       <c r="H49" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="I49" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="J49" t="n">
         <v>12.0</v>
       </c>
       <c r="K49" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="L49" t="n">
-        <v>959.0</v>
+        <v>884.0</v>
       </c>
       <c r="M49" t="n">
-        <v>10.7</v>
+        <v>9.8</v>
       </c>
       <c r="N49" t="n">
         <v>0.0</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q49" t="n">
         <v>0.0</v>
@@ -9852,152 +9763,48 @@
         <v>0.0</v>
       </c>
       <c r="T49" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="U49" t="n">
         <v>0.0</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X49" t="n">
-        <v>1.0</v>
+        <v>1.2</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.0</v>
+        <v>1.3</v>
       </c>
       <c r="Z49" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA49" t="n">
-        <v>45.0</v>
+        <v>37.0</v>
       </c>
       <c r="AB49" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="AC49" t="n">
         <v>0.0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AF49" t="n">
         <v>0.0</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2603.0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" t="s">
-        <v>145</v>
-      </c>
-      <c r="F50" t="s">
-        <v>151</v>
-      </c>
-      <c r="G50" t="s">
-        <v>153</v>
-      </c>
-      <c r="H50" t="s">
-        <v>173</v>
-      </c>
-      <c r="I50" t="s">
-        <v>214</v>
-      </c>
-      <c r="J50" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>884.0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>9.8</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X50" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AH50" t="n">
         <v>0.01</v>
       </c>
     </row>
